--- a/AHP_Rumus_Dinamis.xlsx
+++ b/AHP_Rumus_Dinamis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANAK BAIK\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6B8E09-B9D2-48EF-B1E6-66F88EEA7FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415A272B-29ED-4C54-AD23-FC1843AF9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruksi_AHP" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="55">
   <si>
     <t>Template AHP Dinamis - Petunjuk Singkat</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Lambda</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Kategori</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +743,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,14 +834,14 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F5" si="0">AVERAGE(B3:E3)</f>
+        <f>AVERAGE(B3:E3)</f>
         <v>0.3263305322128851</v>
       </c>
       <c r="G3" s="3">
         <v>1.3116246498599438</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H5" si="1">G3/F3</f>
+        <f t="shared" ref="H3:H5" si="0">G3/F3</f>
         <v>4.0193133047210301</v>
       </c>
       <c r="I3" s="3"/>
@@ -867,14 +867,14 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F5" si="1">AVERAGE(B4:E4)</f>
         <v>0.36204481792717086</v>
       </c>
       <c r="G4" s="3">
         <v>1.4600840336134453</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.032882011605416</v>
       </c>
       <c r="I4" s="3"/>
@@ -900,14 +900,14 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14845938375350137</v>
       </c>
       <c r="G5" s="3">
         <v>0.59547152194211006</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.0110062893081757</v>
       </c>
       <c r="I5" s="3"/>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,13 +1206,13 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1284,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F32:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,19 +1540,22 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1588,12 +1591,13 @@
         <f>E2/E12</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="J2" t="e">
-        <f>SUMPRODUCT(F2:F11,Criteria_Normalized!F2:F5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
+      <c r="J2">
+        <f>(A17*F2)+(B17*G2)+(C17*H2)+(D17*I2)</f>
+        <v>0.10954697535579885</v>
+      </c>
+      <c r="K2">
+        <f>RANK(J2,J2:J11)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1628,8 +1632,13 @@
         <f>E3/E12</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="J3" t="s">
-        <v>29</v>
+      <c r="J3">
+        <f>(A17*F3)+(B17*G3)+(C17*H3)+(D17*I3)</f>
+        <v>9.3504636703166097E-2</v>
+      </c>
+      <c r="K3">
+        <f>RANK(J3,J2:J11)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1664,6 +1673,14 @@
         <f>E4/E12</f>
         <v>0.1111111111111111</v>
       </c>
+      <c r="J4">
+        <f>(A17*F4)+(B17*G4)+(C17*H4)+(D17*I4)</f>
+        <v>9.746065934791423E-2</v>
+      </c>
+      <c r="K4">
+        <f>RANK(J4,J2:J11)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1697,6 +1714,14 @@
         <f>E5/E12</f>
         <v>5.5555555555555552E-2</v>
       </c>
+      <c r="J5">
+        <f>(A17*F5)+(B17*G5)+(C17*H5)+(D17*I5)</f>
+        <v>9.9547794707108408E-2</v>
+      </c>
+      <c r="K5">
+        <f>RANK(J5,J2:J11)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1730,6 +1755,14 @@
         <f>E6/E12</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="J6">
+        <f>(A17*F6)+(B17*G6)+(C17*H6)+(D17*I6)</f>
+        <v>0.12383787690160239</v>
+      </c>
+      <c r="K6">
+        <f>RANK(J6,J2:J11)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1763,6 +1796,14 @@
         <f>E7/E12</f>
         <v>5.5555555555555552E-2</v>
       </c>
+      <c r="J7">
+        <f>(A17*F7)+(B17*G7)+(C17*H7)+(D17*I7)</f>
+        <v>9.3504636703166097E-2</v>
+      </c>
+      <c r="K7">
+        <f>RANK(J7,J2:J11)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1796,6 +1837,14 @@
         <f>E8/E12</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="J8">
+        <f>(A17*F8)+(B17*G8)+(C17*H8)+(D17*I8)</f>
+        <v>0.113502998000547</v>
+      </c>
+      <c r="K8">
+        <f>RANK(J8,J2:J11)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1829,6 +1878,14 @@
         <f>E9/E12</f>
         <v>0.1111111111111111</v>
       </c>
+      <c r="J9">
+        <f>(A17*F9)+(B17*G9)+(C17*H9)+(D17*I9)</f>
+        <v>0.10954697535579885</v>
+      </c>
+      <c r="K9">
+        <f>RANK(J9,J2:J11)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1862,6 +1919,14 @@
         <f>E10/E12</f>
         <v>0.1111111111111111</v>
       </c>
+      <c r="J10">
+        <f>(A17*F10)+(B17*G10)+(C17*H10)+(D17*I10)</f>
+        <v>6.6042810221731779E-2</v>
+      </c>
+      <c r="K10">
+        <f>RANK(J10,J2:J11)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1894,6 +1959,14 @@
       <c r="I11">
         <f>E11/E12</f>
         <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="J11">
+        <f>(A17*F11)+(B17*G11)+(C17*H11)+(D17*I11)</f>
+        <v>9.3504636703166097E-2</v>
+      </c>
+      <c r="K11">
+        <f>RANK(J11,J2:J11)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1906,17 +1979,33 @@
         <v>22</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="C12:D12" si="0">SUM(D2:D11)</f>
+        <f t="shared" ref="D12" si="0">SUM(D2:D11)</f>
         <v>16</v>
       </c>
       <c r="E12">
         <f>SUM(E2:E11)</f>
         <v>18</v>
       </c>
+      <c r="F12">
+        <f>SUM(F2:F11)</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:I12" si="1">SUM(G2:G11)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1933,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
